--- a/medicine/Psychotrope/Espresso_Martini/Espresso_Martini.xlsx
+++ b/medicine/Psychotrope/Espresso_Martini/Espresso_Martini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Espresso Martini est un cocktail officiel de l'IBA, à base de vodka, d'expresso, de liqueur de café et de sirop de sucre. Il doit son nom au Vodka martini dont il est inspiré.
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette variante des cocktails Martini, en particulier du Vodka martini, est créée en 1983 par le barman-barista britannique Dick Bradsell (en) (1959-2016) au Fred's Club du quartier Soho de Londres, à la demande d'une cliente top model qui lui aurait demandé « Préparez-moi un cocktail qui me réveille et qui ensuite m’envoie en l’air »[1],[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette variante des cocktails Martini, en particulier du Vodka martini, est créée en 1983 par le barman-barista britannique Dick Bradsell (en) (1959-2016) au Fred's Club du quartier Soho de Londres, à la demande d'une cliente top model qui lui aurait demandé « Préparez-moi un cocktail qui me réveille et qui ensuite m’envoie en l’air ».
 L'Espresso Martini fait partie depuis 2011 des cocktails officiels de l'IBA.
 </t>
         </is>
@@ -544,14 +558,16 @@
           <t>Recette</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Recette officielle de l'International Bartenders Association (IBA)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Recette officielle de l'International Bartenders Association (IBA) :
 5 cl de vodka
 3 cl de kahlúa (liqueur de café)
 1 cl de sirop de sucre
 1 café expresso
-Bien agiter tous les ingrédients dans un shaker avec de la glace, puis filtrer le tout dans un verre à cocktail refroidi. Décorer avec quelques grains de café[6].
+Bien agiter tous les ingrédients dans un shaker avec de la glace, puis filtrer le tout dans un verre à cocktail refroidi. Décorer avec quelques grains de café.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Quelques variantes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Martini (cocktail)
